--- a/earlywarning-pom/earlywarning-config/src/baf-instances/54_Inst_BusinessLine_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/54_Inst_BusinessLine_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marco.calabretta\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -269,7 +269,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="80">
   <si>
     <t>Business_Line</t>
   </si>
@@ -452,12 +452,69 @@
   </si>
   <si>
     <t>Relation Subset_AnalysisUnit</t>
+  </si>
+  <si>
+    <t>CREATE/MODIFY</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>(SEGMENT='Retail')</t>
+  </si>
+  <si>
+    <t>BL_RETAIL_000001</t>
+  </si>
+  <si>
+    <t>FILTER_Retail</t>
+  </si>
+  <si>
+    <t>FI_RETAIL_0000001</t>
+  </si>
+  <si>
+    <t>Retail_SEGMENT</t>
+  </si>
+  <si>
+    <t>R_FILTER_RETAIL_VAR_01</t>
+  </si>
+  <si>
+    <t>RETAIL_SEGMENT</t>
+  </si>
+  <si>
+    <t>Retail_EQUALS</t>
+  </si>
+  <si>
+    <t>EQUALS</t>
+  </si>
+  <si>
+    <t>R_FILTER_RETAIL_OPERATOR_01</t>
+  </si>
+  <si>
+    <t>RETAIL</t>
+  </si>
+  <si>
+    <t>FV_RETAIL_0000001</t>
+  </si>
+  <si>
+    <t>FILTER_RETAIL_VAR_RETAIL</t>
+  </si>
+  <si>
+    <t>BRAU_RETAIL_0000001</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RETAIL_BL_ALEX_00001</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RETAIL_BL_RETAIL_00001</t>
+  </si>
+  <si>
+    <t>COUNTERPARTY_RETAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -813,6 +870,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10106025" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10106025" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1101,6 +1254,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10448925" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10448925" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1389,6 +1638,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9667875" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1677,6 +2022,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1965,6 +2406,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067925" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10067925" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2253,6 +2790,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9086850" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9086850" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2541,6 +3174,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9715500" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9715500" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2829,6 +3558,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3117,6 +3942,102 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3373,6 +4294,102 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="AutoShape 2"/>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3484,23 +4501,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3536,23 +4536,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3705,16 +4688,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
@@ -3744,6 +4727,23 @@
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3755,19 +4755,20 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -3798,6 +4799,26 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3811,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4642,16 +5663,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
     <col min="5" max="5" width="19.5703125" customWidth="1"/>
@@ -4686,6 +5707,26 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4745,19 +5786,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="6" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
@@ -4788,6 +5829,26 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4799,17 +5860,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4841,6 +5903,26 @@
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4852,19 +5934,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4916,6 +5998,32 @@
       </c>
       <c r="K2" s="2" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/earlywarning-pom/earlywarning-config/src/baf-instances/54_Inst_BusinessLine_RETAIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-instances/54_Inst_BusinessLine_RETAIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dati\DEV\GitRepoAAAP\client-intesa\earlywarning-pom\earlywarning-config\src\baf-instances\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11010" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Business_Line" sheetId="1" r:id="rId1"/>
@@ -460,9 +460,6 @@
     <t>Retail</t>
   </si>
   <si>
-    <t>(SEGMENT='Retail')</t>
-  </si>
-  <si>
     <t>BL_RETAIL_000001</t>
   </si>
   <si>
@@ -490,9 +487,6 @@
     <t>R_FILTER_RETAIL_OPERATOR_01</t>
   </si>
   <si>
-    <t>RETAIL</t>
-  </si>
-  <si>
     <t>FV_RETAIL_0000001</t>
   </si>
   <si>
@@ -509,12 +503,18 @@
   </si>
   <si>
     <t>COUNTERPARTY_RETAIL</t>
+  </si>
+  <si>
+    <t>(SEGMENT='W01')</t>
+  </si>
+  <si>
+    <t>W01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -602,7 +602,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="1026" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -645,7 +651,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -693,7 +705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -741,7 +759,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -789,7 +813,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -837,7 +867,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -885,7 +921,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -933,7 +975,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -942,6 +990,60 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10106025" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10353675" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -986,7 +1088,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10242" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="10242" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002280000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1029,7 +1137,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1077,7 +1191,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1125,7 +1245,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1173,7 +1299,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1221,7 +1353,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1269,7 +1407,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1317,7 +1461,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1326,6 +1476,60 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10448925" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11334750" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1370,7 +1574,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="2050" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002080000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1413,7 +1623,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1461,7 +1677,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1509,7 +1731,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1557,7 +1785,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1605,7 +1839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1653,7 +1893,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1701,7 +1947,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1710,6 +1962,60 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9667875" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9925050" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1754,7 +2060,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="3074" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-0000020C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1797,7 +2109,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1845,7 +2163,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1893,7 +2217,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1941,7 +2271,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1989,7 +2325,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2037,7 +2379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2085,7 +2433,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2138,7 +2546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="4098" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2181,7 +2595,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2229,7 +2649,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2277,7 +2703,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2325,7 +2757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2373,7 +2811,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2421,7 +2865,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2469,7 +2919,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2478,6 +2934,60 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="10067925" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8172450" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2522,7 +3032,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="5122" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002140000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2565,7 +3081,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2613,7 +3135,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2661,7 +3189,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2709,7 +3243,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2757,7 +3297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2805,7 +3351,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2853,7 +3405,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2862,6 +3420,60 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9086850" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8963025" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2906,7 +3518,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6146" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="6146" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2949,7 +3567,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2997,7 +3621,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3045,7 +3675,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3093,7 +3729,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3141,7 +3783,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3189,7 +3837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3237,7 +3891,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3246,6 +3906,60 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="9715500" cy="9515475"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10391775" cy="9515475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3290,7 +4004,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7170" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="7170" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-0000021C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3333,7 +4053,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3381,7 +4107,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3429,7 +4161,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3477,7 +4215,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3525,7 +4269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3573,7 +4323,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3621,7 +4377,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3674,7 +4490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8194" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="8194" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002200000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3717,7 +4539,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3765,7 +4593,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3813,7 +4647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3861,7 +4701,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3909,7 +4755,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3957,7 +4809,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4005,7 +4863,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4058,7 +4976,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9218" name="_xssf_cell_comment" hidden="1"/>
+        <xdr:cNvPr id="9218" name="_xssf_cell_comment" hidden="1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002240000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4101,7 +5025,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="AutoShape 2"/>
+        <xdr:cNvPr id="2" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4149,7 +5079,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4197,7 +5133,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="AutoShape 2"/>
+        <xdr:cNvPr id="4" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4245,7 +5187,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 2"/>
+        <xdr:cNvPr id="5" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4293,7 +5241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="AutoShape 2"/>
+        <xdr:cNvPr id="6" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4341,7 +5295,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="AutoShape 2"/>
+        <xdr:cNvPr id="7" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4389,7 +5349,67 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="AutoShape 2"/>
+        <xdr:cNvPr id="8" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4501,6 +5521,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4536,6 +5573,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4691,7 +5745,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4734,7 +5788,7 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
         <v>62</v>
@@ -4743,7 +5797,7 @@
         <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +5811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -4806,19 +5860,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" t="s">
         <v>76</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
         <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -4832,7 +5886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5714,16 +6768,16 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -5836,19 +6890,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
         <v>68</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5910,19 +6964,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
         <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -5937,7 +6991,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6005,19 +7059,19 @@
         <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J3" t="b">
         <v>0</v>
